--- a/01_DataSources/DS_envConfig.xlsx
+++ b/01_DataSources/DS_envConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\soapuiplus-3.0\01_DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_WORK\01_Actual_work\01_CLV\01_Projects\01_CAT\01_Github\soapuiplus-3.0\01_DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2004F6-6213-4F6C-81F4-3A8716DCABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="2688" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="3828" yWindow="1848" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>env2test</t>
   </si>
@@ -54,19 +55,40 @@
     <t>TEST</t>
   </si>
   <si>
-    <t>test_measurement</t>
-  </si>
-  <si>
     <t>test_app</t>
   </si>
   <si>
+    <t>sendResults</t>
+  </si>
+  <si>
+    <t>xrayUrl</t>
+  </si>
+  <si>
     <t>writeFailReqRspOnly</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>test_comp</t>
+  </si>
+  <si>
+    <t>appComponent</t>
+  </si>
+  <si>
+    <t>xrayTestExecKeyMaster</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>test_measurement_mze</t>
+  </si>
+  <si>
     <t>https://test.clv.cz</t>
+  </si>
+  <si>
+    <t>https://jira.cleverlance.com/rest/raven/1.0/import/execution</t>
   </si>
   <si>
     <t>https://qatick.clance.local/telegraf</t>
@@ -75,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,26 +537,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.21875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,58 +575,83 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://monitoring-test.kb.cz/appmon-in-test/write"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{D5638C8E-B4FD-4201-825B-C661577E8BB3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>